--- a/predictions/single/RandomForestRegressor/Retinopatía proliferativa.xlsx
+++ b/predictions/single/RandomForestRegressor/Retinopatía proliferativa.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1000695679481969</v>
+        <v>0.1118192561730441</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9994039141358547</v>
+        <v>0.9993339245955524</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/RandomForestRegressor/Retinopatía proliferativa.xlsx
+++ b/predictions/single/RandomForestRegressor/Retinopatía proliferativa.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1118192561730441</v>
+        <v>0.09704715406791575</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9993339245955524</v>
+        <v>0.9994219177929762</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/predictions/single/RandomForestRegressor/Retinopatía proliferativa.xlsx
+++ b/predictions/single/RandomForestRegressor/Retinopatía proliferativa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tipo</t>
         </is>
       </c>
@@ -462,12 +467,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09704715406791575</v>
+        <v>0.09583082560078589</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9994219177929762</v>
-      </c>
-      <c r="D2" t="inlineStr">
+        <v>0.9994291631146087</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.219217455348433</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
         </is>

--- a/predictions/single/RandomForestRegressor/Retinopatía proliferativa.xlsx
+++ b/predictions/single/RandomForestRegressor/Retinopatía proliferativa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Tipo</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Modelo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -467,17 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09583082560078589</v>
+        <v>0.09406460280887817</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9994291631146087</v>
+        <v>0.9994396839998366</v>
       </c>
       <c r="D2" t="n">
-        <v>0.219217455348433</v>
+        <v>0.2170285180861791</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>single</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=5, n_estimators=50))])</t>
         </is>
       </c>
     </row>

--- a/predictions/single/RandomForestRegressor/Retinopatía proliferativa.xlsx
+++ b/predictions/single/RandomForestRegressor/Retinopatía proliferativa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>Modelo</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Elapsed Time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CPU</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -472,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09406460280887817</v>
+        <v>0.09785757333711262</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9994396839998366</v>
+        <v>0.9994170903566206</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2170285180861791</v>
+        <v>0.2195837108323081</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -487,8 +497,15 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=5, n_estimators=50))])</t>
-        </is>
+          <t>Pipeline(steps=[('model',
+                 RandomForestRegressor(max_depth=5, n_estimators=150))])</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1256850772835605</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/RandomForestRegressor/Retinopatía proliferativa.xlsx
+++ b/predictions/single/RandomForestRegressor/Retinopatía proliferativa.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09785757333711262</v>
+        <v>0.108395790014149</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9994170903566206</v>
+        <v>0.9993543172066682</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2195837108323081</v>
+        <v>0.2258128950431275</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -498,14 +498,14 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('model',
-                 RandomForestRegressor(max_depth=5, n_estimators=150))])</t>
+                 RandomForestRegressor(max_depth=7, n_estimators=150))])</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1256850772835605</v>
+        <v>0.1275654571999136</v>
       </c>
       <c r="H2" t="n">
-        <v>0.99</v>
+        <v>0.987</v>
       </c>
     </row>
   </sheetData>

--- a/predictions/single/RandomForestRegressor/Retinopatía proliferativa.xlsx
+++ b/predictions/single/RandomForestRegressor/Retinopatía proliferativa.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.108395790014149</v>
+        <v>0.1026899336953756</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9993543172066682</v>
+        <v>0.9993883053647487</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2258128950431275</v>
+        <v>0.2199866449939377</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -497,15 +497,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('model',
-                 RandomForestRegressor(max_depth=7, n_estimators=150))])</t>
+          <t>Pipeline(steps=[('model', RandomForestRegressor(max_depth=7))])</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1275654571999136</v>
+        <v>0.12469127785007</v>
       </c>
       <c r="H2" t="n">
-        <v>0.987</v>
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>
